--- a/실무_엑셀_예제_파일/Chapter07/07-014.xlsx
+++ b/실무_엑셀_예제_파일/Chapter07/07-014.xlsx
@@ -1,33 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info\Google Drive\@ 오빠두 실무엑셀 - 출판\@ 예제파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF424833-FAE8-4074-B5FA-DE0A85F13557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9584E1B-C529-47D8-9D0E-CA4D6C82F1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2388" yWindow="1356" windowWidth="16500" windowHeight="11520" xr2:uid="{E9A31C3A-A959-416C-810C-BF92A79E71C0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{E9A31C3A-A959-416C-810C-BF92A79E71C0}"/>
   </bookViews>
   <sheets>
     <sheet name="배열알아보기" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -501,22 +492,24 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.19921875" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -527,50 +520,65 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="3">
         <v>29</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D5" s="3" t="str">
+        <f>B5:B9</f>
+        <v>김하늘</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="3">
         <v>33</v>
       </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D6" s="3" t="str">
+        <f>B5:B9</f>
+        <v>이진수</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="3">
         <v>31</v>
       </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D7" s="3" t="str">
+        <f>B5:B9</f>
+        <v>박진아</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="3">
         <v>25</v>
       </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D8" s="3" t="str">
+        <f>B5:B9</f>
+        <v>김세찬</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="3">
         <v>32</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3" t="str">
+        <f>B5:B9</f>
+        <v>정은지</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
